--- a/artfynd/A 2365-2023.xlsx
+++ b/artfynd/A 2365-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4210,6 +4210,1102 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112176074</v>
+      </c>
+      <c r="B32" t="n">
+        <v>98508</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1365</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lappranunkel</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Coptidium lapponicum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) Tzvelev</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>602642.3927213018</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7030561.374359156</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112176087</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89590</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>48</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lappticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Amylocystis lapponica</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Romell) Singer</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>602805.8737273614</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7030688.648317279</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112176102</v>
+      </c>
+      <c r="B34" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>658</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>602660.3503862405</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7030715.82964331</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112176069</v>
+      </c>
+      <c r="B35" t="n">
+        <v>18534</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>101797</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Karelsk barkfluga</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Xylomya czekanovskii</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Pleske, 1925</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>puppa</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>602774.5095870381</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7030644.124442326</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112176095</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>602796.3254976775</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7030566.314026224</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112176096</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12450</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>101692</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Större barkplattbagge</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pytho kolwensis</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sahlberg, 1833</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>602868.7858234661</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7030590.176470381</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>larv 20-25 mm</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112176108</v>
+      </c>
+      <c r="B38" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>658</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>602830.8989684412</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7030664.777842449</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112176088</v>
+      </c>
+      <c r="B39" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>602858.8694568657</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7030591.203716032</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112176093</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>105336</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Vanlig flatbagge</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Peltis ferruginea</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Håssjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>602865.1212630216</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7030578.394125014</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Pekka Bader</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 2365-2023.xlsx
+++ b/artfynd/A 2365-2023.xlsx
@@ -4212,10 +4212,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112176074</v>
+        <v>112176102</v>
       </c>
       <c r="B32" t="n">
-        <v>98508</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4224,25 +4224,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1365</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>602642.3927213018</v>
+        <v>602660.3503862405</v>
       </c>
       <c r="R32" t="n">
-        <v>7030561.374359156</v>
+        <v>7030715.82964331</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4332,10 +4332,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112176087</v>
+        <v>112176095</v>
       </c>
       <c r="B33" t="n">
-        <v>89590</v>
+        <v>89845</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4348,21 +4348,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48</v>
+        <v>1209</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4376,10 +4376,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>602805.8737273614</v>
+        <v>602796.3254976775</v>
       </c>
       <c r="R33" t="n">
-        <v>7030688.648317279</v>
+        <v>7030566.314026224</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4452,10 +4452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112176102</v>
+        <v>112176069</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>18534</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4464,25 +4464,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>101797</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Karelsk barkfluga</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Xylomya czekanovskii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Pleske, 1925</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4490,16 +4490,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>puppa</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>602660.3503862405</v>
+        <v>602774.5095870381</v>
       </c>
       <c r="R34" t="n">
-        <v>7030715.82964331</v>
+        <v>7030644.124442326</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4526,7 +4531,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4536,7 +4541,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4553,6 +4558,7 @@
       <c r="AG34" t="b">
         <v>0</v>
       </c>
+      <c r="AR34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
@@ -4561,7 +4567,7 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4572,10 +4578,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112176069</v>
+        <v>112176096</v>
       </c>
       <c r="B35" t="n">
-        <v>18534</v>
+        <v>12450</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4588,21 +4594,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>101797</v>
+        <v>101692</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Karelsk barkfluga</t>
+          <t>Större barkplattbagge</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Xylomya czekanovskii</t>
+          <t>Pytho kolwensis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pleske, 1925</t>
+          <t>Sahlberg, 1833</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4612,7 +4618,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>puppa</t>
+          <t>larv/nymf</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4621,10 +4627,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>602774.5095870381</v>
+        <v>602868.7858234661</v>
       </c>
       <c r="R35" t="n">
-        <v>7030644.124442326</v>
+        <v>7030590.176470381</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4651,7 +4657,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4661,7 +4667,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4669,6 +4675,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>larv 20-25 mm</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4678,7 +4689,6 @@
       <c r="AG35" t="b">
         <v>0</v>
       </c>
-      <c r="AR35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
@@ -4687,7 +4697,7 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4698,10 +4708,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112176095</v>
+        <v>112176087</v>
       </c>
       <c r="B36" t="n">
-        <v>89845</v>
+        <v>89590</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4714,21 +4724,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1209</v>
+        <v>48</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4742,10 +4752,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>602796.3254976775</v>
+        <v>602805.8737273614</v>
       </c>
       <c r="R36" t="n">
-        <v>7030566.314026224</v>
+        <v>7030688.648317279</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4772,7 +4782,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4782,7 +4792,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4807,7 +4817,7 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4818,10 +4828,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112176096</v>
+        <v>112176088</v>
       </c>
       <c r="B37" t="n">
-        <v>12450</v>
+        <v>89425</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4830,25 +4840,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>101692</v>
+        <v>5442</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Större barkplattbagge</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pytho kolwensis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sahlberg, 1833</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4856,21 +4866,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>602868.7858234661</v>
+        <v>602858.8694568657</v>
       </c>
       <c r="R37" t="n">
-        <v>7030590.176470381</v>
+        <v>7030591.203716032</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4897,7 +4902,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4907,17 +4912,12 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>larv 20-25 mm</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -5068,10 +5068,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112176088</v>
+        <v>112176074</v>
       </c>
       <c r="B39" t="n">
-        <v>89425</v>
+        <v>98508</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5080,25 +5080,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5442</v>
+        <v>1365</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>602858.8694568657</v>
+        <v>602642.3927213018</v>
       </c>
       <c r="R39" t="n">
-        <v>7030591.203716032</v>
+        <v>7030561.374359156</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>

--- a/artfynd/A 2365-2023.xlsx
+++ b/artfynd/A 2365-2023.xlsx
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>602660.3503862405</v>
+        <v>602660</v>
       </c>
       <c r="R32" t="n">
-        <v>7030715.82964331</v>
+        <v>7030716</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4289,19 +4289,9 @@
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4332,10 +4322,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112176095</v>
+        <v>112176088</v>
       </c>
       <c r="B33" t="n">
-        <v>89845</v>
+        <v>89425</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4344,25 +4334,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1209</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4376,10 +4366,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>602796.3254976775</v>
+        <v>602859</v>
       </c>
       <c r="R33" t="n">
-        <v>7030566.314026224</v>
+        <v>7030591</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4406,22 +4396,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4441,7 +4421,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4452,10 +4432,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112176069</v>
+        <v>112176095</v>
       </c>
       <c r="B34" t="n">
-        <v>18534</v>
+        <v>89845</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4464,25 +4444,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>101797</v>
+        <v>1209</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Karelsk barkfluga</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Xylomya czekanovskii</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pleske, 1925</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4490,21 +4470,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>puppa</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>602774.5095870381</v>
+        <v>602796</v>
       </c>
       <c r="R34" t="n">
-        <v>7030644.124442326</v>
+        <v>7030566</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4531,22 +4506,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4558,7 +4523,6 @@
       <c r="AG34" t="b">
         <v>0</v>
       </c>
-      <c r="AR34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
@@ -4567,7 +4531,7 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4578,10 +4542,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112176096</v>
+        <v>112176074</v>
       </c>
       <c r="B35" t="n">
-        <v>12450</v>
+        <v>98508</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4590,25 +4554,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>101692</v>
+        <v>1365</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Större barkplattbagge</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pytho kolwensis</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sahlberg, 1833</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4616,21 +4580,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>602868.7858234661</v>
+        <v>602642</v>
       </c>
       <c r="R35" t="n">
-        <v>7030590.176470381</v>
+        <v>7030561</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4657,27 +4616,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>larv 20-25 mm</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4697,7 +4641,7 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4708,10 +4652,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112176087</v>
+        <v>112176069</v>
       </c>
       <c r="B36" t="n">
-        <v>89590</v>
+        <v>18534</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4720,25 +4664,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48</v>
+        <v>101797</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Karelsk barkfluga</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Xylomya czekanovskii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>Pleske, 1925</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4746,16 +4690,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>puppa</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>602805.8737273614</v>
+        <v>602775</v>
       </c>
       <c r="R36" t="n">
-        <v>7030688.648317279</v>
+        <v>7030644</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4785,21 +4734,11 @@
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -4809,6 +4748,7 @@
       <c r="AG36" t="b">
         <v>0</v>
       </c>
+      <c r="AR36" t="inlineStr"/>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
@@ -4828,10 +4768,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112176088</v>
+        <v>112176093</v>
       </c>
       <c r="B37" t="n">
-        <v>89425</v>
+        <v>6202</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4840,25 +4780,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5442</v>
+        <v>105336</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4872,10 +4812,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>602858.8694568657</v>
+        <v>602865</v>
       </c>
       <c r="R37" t="n">
-        <v>7030591.203716032</v>
+        <v>7030578</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4902,22 +4842,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4937,7 +4867,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4948,10 +4878,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112176108</v>
+        <v>112176096</v>
       </c>
       <c r="B38" t="n">
-        <v>89686</v>
+        <v>12450</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4960,25 +4890,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>658</v>
+        <v>101692</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Större barkplattbagge</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pytho kolwensis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Sahlberg, 1833</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4986,16 +4916,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>602830.8989684412</v>
+        <v>602869</v>
       </c>
       <c r="R38" t="n">
-        <v>7030664.777842449</v>
+        <v>7030590</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5025,19 +4960,14 @@
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>larv 20-25 mm</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5068,10 +4998,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112176074</v>
+        <v>112176108</v>
       </c>
       <c r="B39" t="n">
-        <v>98508</v>
+        <v>89686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5080,25 +5010,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1365</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5112,10 +5042,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>602642.3927213018</v>
+        <v>602831</v>
       </c>
       <c r="R39" t="n">
-        <v>7030561.374359156</v>
+        <v>7030665</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5142,22 +5072,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5177,7 +5097,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -5188,10 +5108,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112176093</v>
+        <v>112176087</v>
       </c>
       <c r="B40" t="n">
-        <v>6202</v>
+        <v>89590</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5200,25 +5120,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>105336</v>
+        <v>48</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5232,10 +5152,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>602865.1212630216</v>
+        <v>602806</v>
       </c>
       <c r="R40" t="n">
-        <v>7030578.394125014</v>
+        <v>7030689</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5262,22 +5182,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5297,7 +5207,7 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">

--- a/artfynd/A 2365-2023.xlsx
+++ b/artfynd/A 2365-2023.xlsx
@@ -4212,10 +4212,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112176102</v>
+        <v>112176088</v>
       </c>
       <c r="B32" t="n">
-        <v>89686</v>
+        <v>89559</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4228,21 +4228,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>658</v>
+        <v>5442</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>602660</v>
+        <v>602859</v>
       </c>
       <c r="R32" t="n">
-        <v>7030716</v>
+        <v>7030591</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4286,12 +4286,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4322,10 +4322,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112176088</v>
+        <v>112176102</v>
       </c>
       <c r="B33" t="n">
-        <v>89425</v>
+        <v>89820</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4338,21 +4338,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>602859</v>
+        <v>602660</v>
       </c>
       <c r="R33" t="n">
-        <v>7030591</v>
+        <v>7030716</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4396,12 +4396,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4432,10 +4432,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112176095</v>
+        <v>112176093</v>
       </c>
       <c r="B34" t="n">
-        <v>89845</v>
+        <v>6202</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4444,25 +4444,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1209</v>
+        <v>105336</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4476,10 +4476,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>602796</v>
+        <v>602865</v>
       </c>
       <c r="R34" t="n">
-        <v>7030566</v>
+        <v>7030578</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4506,12 +4506,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4542,10 +4542,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112176074</v>
+        <v>112176069</v>
       </c>
       <c r="B35" t="n">
-        <v>98508</v>
+        <v>18534</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4554,25 +4554,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1365</v>
+        <v>101797</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Karelsk barkfluga</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Xylomya czekanovskii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>Pleske, 1925</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4580,16 +4580,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>puppa</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>602642</v>
+        <v>602775</v>
       </c>
       <c r="R35" t="n">
-        <v>7030561</v>
+        <v>7030644</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4633,6 +4638,7 @@
       <c r="AG35" t="b">
         <v>0</v>
       </c>
+      <c r="AR35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
@@ -4652,10 +4658,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112176069</v>
+        <v>112176096</v>
       </c>
       <c r="B36" t="n">
-        <v>18534</v>
+        <v>12450</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4668,21 +4674,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>101797</v>
+        <v>101692</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Karelsk barkfluga</t>
+          <t>Större barkplattbagge</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Xylomya czekanovskii</t>
+          <t>Pytho kolwensis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pleske, 1925</t>
+          <t>Sahlberg, 1833</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4692,7 +4698,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>puppa</t>
+          <t>larv/nymf</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4701,10 +4707,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>602775</v>
+        <v>602869</v>
       </c>
       <c r="R36" t="n">
-        <v>7030644</v>
+        <v>7030590</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4731,12 +4737,17 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>larv 20-25 mm</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4748,7 +4759,6 @@
       <c r="AG36" t="b">
         <v>0</v>
       </c>
-      <c r="AR36" t="inlineStr"/>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
@@ -4757,7 +4767,7 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4768,10 +4778,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112176093</v>
+        <v>112176087</v>
       </c>
       <c r="B37" t="n">
-        <v>6202</v>
+        <v>89724</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4780,25 +4790,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>105336</v>
+        <v>48</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4812,10 +4822,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>602865</v>
+        <v>602806</v>
       </c>
       <c r="R37" t="n">
-        <v>7030578</v>
+        <v>7030689</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4842,12 +4852,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4867,7 +4877,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4878,10 +4888,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112176096</v>
+        <v>112176074</v>
       </c>
       <c r="B38" t="n">
-        <v>12450</v>
+        <v>98934</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4890,25 +4900,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>101692</v>
+        <v>1365</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Större barkplattbagge</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pytho kolwensis</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sahlberg, 1833</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4916,21 +4926,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>602869</v>
+        <v>602642</v>
       </c>
       <c r="R38" t="n">
-        <v>7030590</v>
+        <v>7030561</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4957,17 +4962,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>larv 20-25 mm</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4998,10 +4998,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112176108</v>
+        <v>112176095</v>
       </c>
       <c r="B39" t="n">
-        <v>89686</v>
+        <v>89979</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5010,25 +5010,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5042,10 +5042,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>602831</v>
+        <v>602796</v>
       </c>
       <c r="R39" t="n">
-        <v>7030665</v>
+        <v>7030566</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112176087</v>
+        <v>112176108</v>
       </c>
       <c r="B40" t="n">
-        <v>89590</v>
+        <v>89820</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5120,25 +5120,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5152,10 +5152,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>602806</v>
+        <v>602831</v>
       </c>
       <c r="R40" t="n">
-        <v>7030689</v>
+        <v>7030665</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5182,12 +5182,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">

--- a/artfynd/A 2365-2023.xlsx
+++ b/artfynd/A 2365-2023.xlsx
@@ -4212,10 +4212,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112176088</v>
+        <v>112176074</v>
       </c>
       <c r="B32" t="n">
-        <v>89559</v>
+        <v>98953</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4224,25 +4224,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5442</v>
+        <v>1365</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>602859</v>
+        <v>602642</v>
       </c>
       <c r="R32" t="n">
-        <v>7030591</v>
+        <v>7030561</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4325,7 +4325,7 @@
         <v>112176102</v>
       </c>
       <c r="B33" t="n">
-        <v>89820</v>
+        <v>89834</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112176093</v>
+        <v>112176108</v>
       </c>
       <c r="B34" t="n">
-        <v>6202</v>
+        <v>89834</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4444,25 +4444,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>105336</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4476,10 +4476,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>602865</v>
+        <v>602831</v>
       </c>
       <c r="R34" t="n">
-        <v>7030578</v>
+        <v>7030665</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4506,12 +4506,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4658,10 +4658,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112176096</v>
+        <v>112176087</v>
       </c>
       <c r="B36" t="n">
-        <v>12450</v>
+        <v>89738</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4670,25 +4670,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>101692</v>
+        <v>48</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Större barkplattbagge</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pytho kolwensis</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sahlberg, 1833</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4696,21 +4696,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>602869</v>
+        <v>602806</v>
       </c>
       <c r="R36" t="n">
-        <v>7030590</v>
+        <v>7030689</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4737,17 +4732,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>larv 20-25 mm</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4767,7 +4757,7 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4778,10 +4768,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112176087</v>
+        <v>112176095</v>
       </c>
       <c r="B37" t="n">
-        <v>89724</v>
+        <v>89993</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4794,21 +4784,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48</v>
+        <v>1209</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4822,10 +4812,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>602806</v>
+        <v>602796</v>
       </c>
       <c r="R37" t="n">
-        <v>7030689</v>
+        <v>7030566</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4852,12 +4842,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4877,7 +4867,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4888,10 +4878,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112176074</v>
+        <v>112176093</v>
       </c>
       <c r="B38" t="n">
-        <v>98934</v>
+        <v>6203</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4904,21 +4894,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1365</v>
+        <v>105336</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4932,10 +4922,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>602642</v>
+        <v>602865</v>
       </c>
       <c r="R38" t="n">
-        <v>7030561</v>
+        <v>7030578</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4962,12 +4952,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4987,7 +4977,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Pekka Bader, Anna-Maria Eriksson</t>
+          <t>Pekka Bader</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4998,10 +4988,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112176095</v>
+        <v>112176096</v>
       </c>
       <c r="B39" t="n">
-        <v>89979</v>
+        <v>12450</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5010,25 +5000,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1209</v>
+        <v>101692</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Större barkplattbagge</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pytho kolwensis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Sahlberg, 1833</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5036,16 +5026,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Håssjön, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>602796</v>
+        <v>602869</v>
       </c>
       <c r="R39" t="n">
-        <v>7030566</v>
+        <v>7030590</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5078,6 +5073,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>larv 20-25 mm</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5108,10 +5108,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112176108</v>
+        <v>112176088</v>
       </c>
       <c r="B40" t="n">
-        <v>89820</v>
+        <v>89573</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5124,21 +5124,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>5442</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5152,10 +5152,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>602831</v>
+        <v>602859</v>
       </c>
       <c r="R40" t="n">
-        <v>7030665</v>
+        <v>7030591</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5182,12 +5182,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Pekka Bader</t>
+          <t>Pekka Bader, Anna-Maria Eriksson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
